--- a/Project1JavaTry2/excel/bestFitData.xlsx
+++ b/Project1JavaTry2/excel/bestFitData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\School Work\_College Sp 2016\Op Sys\CS4323Projects\Project1JavaTry2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoalie\Documents\GitHub\CS4323Projects\Project1JavaTry2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Chart4" sheetId="5" r:id="rId4"/>
     <sheet name="firstFitData" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -711,151 +711,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>302</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>407</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>527</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>607</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>832</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1017</c:v>
+                  <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1117</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1212</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1307</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1427</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1502</c:v>
+                  <c:v>1513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1627</c:v>
+                  <c:v>1623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1707</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1827</c:v>
+                  <c:v>1818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1922</c:v>
+                  <c:v>1908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2012</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2127</c:v>
+                  <c:v>2118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2227</c:v>
+                  <c:v>2213</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2307</c:v>
+                  <c:v>2323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2402</c:v>
+                  <c:v>2443</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2552</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2607</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2737</c:v>
+                  <c:v>2748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2842</c:v>
+                  <c:v>2833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2937</c:v>
+                  <c:v>2948</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3012</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3112</c:v>
+                  <c:v>3118</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3222</c:v>
+                  <c:v>3218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3322</c:v>
+                  <c:v>3303</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3412</c:v>
+                  <c:v>3408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3502</c:v>
+                  <c:v>3513</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3627</c:v>
+                  <c:v>3603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3722</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3807</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3922</c:v>
+                  <c:v>3943</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4027</c:v>
+                  <c:v>4048</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4112</c:v>
+                  <c:v>4103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4207</c:v>
+                  <c:v>4218</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4327</c:v>
+                  <c:v>4303</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4447</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4517</c:v>
+                  <c:v>4523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4607</c:v>
+                  <c:v>4628</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4732</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4817</c:v>
+                  <c:v>4813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4902</c:v>
+                  <c:v>4928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,151 +867,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>66</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>69</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>76</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>79</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>86</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>101</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>124</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>126</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>129</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,151 +1062,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>302</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>407</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>527</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>607</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>832</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1017</c:v>
+                  <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1117</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1212</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1307</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1427</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1502</c:v>
+                  <c:v>1513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1627</c:v>
+                  <c:v>1623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1707</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1827</c:v>
+                  <c:v>1818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1922</c:v>
+                  <c:v>1908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2012</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2127</c:v>
+                  <c:v>2118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2227</c:v>
+                  <c:v>2213</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2307</c:v>
+                  <c:v>2323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2402</c:v>
+                  <c:v>2443</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2552</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2607</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2737</c:v>
+                  <c:v>2748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2842</c:v>
+                  <c:v>2833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2937</c:v>
+                  <c:v>2948</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3012</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3112</c:v>
+                  <c:v>3118</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3222</c:v>
+                  <c:v>3218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3322</c:v>
+                  <c:v>3303</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3412</c:v>
+                  <c:v>3408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3502</c:v>
+                  <c:v>3513</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3627</c:v>
+                  <c:v>3603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3722</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3807</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3922</c:v>
+                  <c:v>3943</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4027</c:v>
+                  <c:v>4048</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4112</c:v>
+                  <c:v>4103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4207</c:v>
+                  <c:v>4218</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4327</c:v>
+                  <c:v>4303</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4447</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4517</c:v>
+                  <c:v>4523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4607</c:v>
+                  <c:v>4628</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4732</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4817</c:v>
+                  <c:v>4813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4902</c:v>
+                  <c:v>4928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,151 +1218,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>282</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>307</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>324</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>336</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>358</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>375</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>382</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>401</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>418</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>433</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>447</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>467</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>481</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>496</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>510</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>521</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>536</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>546</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>559</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>576</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>593</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>603</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>621</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>639</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>653</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>664</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>687</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>707</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>723</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>738</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,11 +1377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-849791472"/>
-        <c:axId val="-849798000"/>
+        <c:axId val="-681948000"/>
+        <c:axId val="-681937120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-849791472"/>
+        <c:axId val="-681948000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1495,12 +1495,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849798000"/>
+        <c:crossAx val="-681937120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-849798000"/>
+        <c:axId val="-681937120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849791472"/>
+        <c:crossAx val="-681948000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1729,7 +1729,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1806,151 +1805,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>302</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>407</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>527</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>607</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>832</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1017</c:v>
+                  <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1117</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1212</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1307</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1427</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1502</c:v>
+                  <c:v>1513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1627</c:v>
+                  <c:v>1623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1707</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1827</c:v>
+                  <c:v>1818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1922</c:v>
+                  <c:v>1908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2012</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2127</c:v>
+                  <c:v>2118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2227</c:v>
+                  <c:v>2213</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2307</c:v>
+                  <c:v>2323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2402</c:v>
+                  <c:v>2443</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2552</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2607</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2737</c:v>
+                  <c:v>2748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2842</c:v>
+                  <c:v>2833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2937</c:v>
+                  <c:v>2948</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3012</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3112</c:v>
+                  <c:v>3118</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3222</c:v>
+                  <c:v>3218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3322</c:v>
+                  <c:v>3303</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3412</c:v>
+                  <c:v>3408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3502</c:v>
+                  <c:v>3513</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3627</c:v>
+                  <c:v>3603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3722</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3807</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3922</c:v>
+                  <c:v>3943</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4027</c:v>
+                  <c:v>4048</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4112</c:v>
+                  <c:v>4103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4207</c:v>
+                  <c:v>4218</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4327</c:v>
+                  <c:v>4303</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4447</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4517</c:v>
+                  <c:v>4523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4607</c:v>
+                  <c:v>4628</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4732</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4817</c:v>
+                  <c:v>4813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4902</c:v>
+                  <c:v>4928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,151 +1961,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>101.666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.428570000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.294120000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.777780000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.428570000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.047620000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.545456000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.095238000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.363636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.380949999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.478259999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.619050000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.565215999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.454543999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.380949999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.380949999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.347828</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.652172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.583331999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38.518520000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42.580646999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.965519999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38.518520000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.379309999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.8125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.117645000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.642856999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.935482</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41.612904</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39.655174000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43.4375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.030304000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="47">
                   <c:v>33.333331999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.333334000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43.571429999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.529409999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41.538460000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36.923076999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37.058822999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>39.473681999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.555557</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.63158</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>34.761906000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>36.521740000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38.75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>39.615383000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39.23077</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40.714286999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41.111109999999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41.071429999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>40.384616999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38.260868000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39.565215999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43.214286999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45.161290000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46.060608000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46.176470000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43.793101999999998</c:v>
-                </c:pt>
                 <c:pt idx="48">
-                  <c:v>43.870967999999998</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,11 +2120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-849780048"/>
-        <c:axId val="-541814416"/>
+        <c:axId val="-681944736"/>
+        <c:axId val="-681936032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-849780048"/>
+        <c:axId val="-681944736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2183,12 +2182,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541814416"/>
+        <c:crossAx val="-681936032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541814416"/>
+        <c:axId val="-681936032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849780048"/>
+        <c:crossAx val="-681944736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2333,7 +2332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2410,151 +2408,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>302</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>407</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>527</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>607</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>832</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1017</c:v>
+                  <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1117</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1212</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1307</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1427</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1502</c:v>
+                  <c:v>1513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1627</c:v>
+                  <c:v>1623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1707</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1827</c:v>
+                  <c:v>1818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1922</c:v>
+                  <c:v>1908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2012</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2127</c:v>
+                  <c:v>2118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2227</c:v>
+                  <c:v>2213</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2307</c:v>
+                  <c:v>2323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2402</c:v>
+                  <c:v>2443</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2552</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2607</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2737</c:v>
+                  <c:v>2748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2842</c:v>
+                  <c:v>2833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2937</c:v>
+                  <c:v>2948</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3012</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3112</c:v>
+                  <c:v>3118</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3222</c:v>
+                  <c:v>3218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3322</c:v>
+                  <c:v>3303</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3412</c:v>
+                  <c:v>3408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3502</c:v>
+                  <c:v>3513</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3627</c:v>
+                  <c:v>3603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3722</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3807</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3922</c:v>
+                  <c:v>3943</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4027</c:v>
+                  <c:v>4048</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4112</c:v>
+                  <c:v>4103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4207</c:v>
+                  <c:v>4218</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4327</c:v>
+                  <c:v>4303</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4447</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4517</c:v>
+                  <c:v>4523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4607</c:v>
+                  <c:v>4628</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4732</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4817</c:v>
+                  <c:v>4813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4902</c:v>
+                  <c:v>4928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,151 +2564,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>190</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>230</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>260</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>260</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>260</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>260</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>280</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>280</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>320</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>340</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>340</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>340</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>360</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>360</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>360</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>360</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>360</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>380</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,11 +2723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-541789936"/>
-        <c:axId val="-541804624"/>
+        <c:axId val="-681940384"/>
+        <c:axId val="-681944192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-541789936"/>
+        <c:axId val="-681940384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2787,12 +2785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541804624"/>
+        <c:crossAx val="-681944192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541804624"/>
+        <c:axId val="-681944192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,7 +2847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541789936"/>
+        <c:crossAx val="-681940384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2933,7 +2931,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3010,151 +3007,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>302</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>407</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>527</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>607</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>832</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>912</c:v>
+                  <c:v>908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1017</c:v>
+                  <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1117</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1212</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1307</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1427</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1502</c:v>
+                  <c:v>1513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1627</c:v>
+                  <c:v>1623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1707</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1827</c:v>
+                  <c:v>1818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1922</c:v>
+                  <c:v>1908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2012</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2127</c:v>
+                  <c:v>2118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2227</c:v>
+                  <c:v>2213</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2307</c:v>
+                  <c:v>2323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2402</c:v>
+                  <c:v>2443</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2552</c:v>
+                  <c:v>2503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2607</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2737</c:v>
+                  <c:v>2748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2842</c:v>
+                  <c:v>2833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2937</c:v>
+                  <c:v>2948</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3012</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3112</c:v>
+                  <c:v>3118</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3222</c:v>
+                  <c:v>3218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3322</c:v>
+                  <c:v>3303</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3412</c:v>
+                  <c:v>3408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3502</c:v>
+                  <c:v>3513</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3627</c:v>
+                  <c:v>3603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3722</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3807</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3922</c:v>
+                  <c:v>3943</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4027</c:v>
+                  <c:v>4048</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4112</c:v>
+                  <c:v>4103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4207</c:v>
+                  <c:v>4218</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4327</c:v>
+                  <c:v>4303</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4447</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4517</c:v>
+                  <c:v>4523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4607</c:v>
+                  <c:v>4628</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4732</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4817</c:v>
+                  <c:v>4813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4902</c:v>
+                  <c:v>4928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,151 +3163,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>82.777780000000007</c:v>
+                  <c:v>98.888885000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.55556</c:v>
+                  <c:v>98.333336000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.222219999999993</c:v>
+                  <c:v>87.777780000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.111114999999998</c:v>
+                  <c:v>64.44444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.222219999999993</c:v>
+                  <c:v>68.333336000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.333336000000003</c:v>
+                  <c:v>54.444443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.333336000000003</c:v>
+                  <c:v>36.666668000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.666663999999997</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.777780000000007</c:v>
+                  <c:v>26.11111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.666668000000001</c:v>
+                  <c:v>28.88889</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>30.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.77778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.22222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.777778999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.444443</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.77778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.22222</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.555557</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.22222</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>51.666668000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>62.77778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56.111109999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>58.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65.55556</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68.333336000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>63.888890000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>59.444443</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>52.77778</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>58.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>59.444443</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.77778</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>46.111109999999996</c:v>
+                  <c:v>51.111109999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41.111109999999996</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38.333331999999999</c:v>
+                  <c:v>43.333331999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.555557</c:v>
+                  <c:v>36.666668000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.888890000000004</c:v>
+                  <c:v>39.444443</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.888890000000004</c:v>
+                  <c:v>42.22222</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38.888890000000004</c:v>
+                  <c:v>30.555554999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>34.444443</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>35</c:v>
+                  <c:v>18.88889</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.333334000000001</c:v>
+                  <c:v>25.555554999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30</c:v>
+                  <c:v>30.555554999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.777778999999999</c:v>
+                  <c:v>21.666665999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33.333331999999999</c:v>
+                  <c:v>12.222222</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.77778</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40.555557</c:v>
+                  <c:v>8.8888890000000007</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>18.333334000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.11111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.444445000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.444445</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.555554999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.77778</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>36.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>35.555557</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>34.444443</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>23.333334000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.555555</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.777778</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.1111110000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.3333333000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,11 +3322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-541792112"/>
-        <c:axId val="-541813328"/>
+        <c:axId val="-681949088"/>
+        <c:axId val="-681948544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-541792112"/>
+        <c:axId val="-681949088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -3387,12 +3384,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541813328"/>
+        <c:crossAx val="-681948544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541813328"/>
+        <c:axId val="-681948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,7 +3446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541792112"/>
+        <c:crossAx val="-681949088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5721,7 +5718,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5769,7 +5766,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8663836" cy="6289110"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6138,8 +6135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6152,31 +6149,31 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1">
         <f ca="1">OFFSET(B$8,7*(ROW()-2),0)</f>
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>4</v>
+        <f t="shared" ref="E1:E6" ca="1" si="0">OFFSET(B$9,7*(ROW()-2),0)</f>
+        <v>3</v>
       </c>
       <c r="F1" s="1">
         <f ca="1">OFFSET(B$10,7*(ROW()-2),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f ca="1">OFFSET(B$11,7*(ROW()-2),0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1">
         <f ca="1">OFFSET(B$12,7*(ROW()-2),0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1">
         <f ca="1">OFFSET(B$13,7*(ROW()-2),0)</f>
-        <v>82.777780000000007</v>
+        <v>98.888885000000002</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6184,32 +6181,32 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D49" ca="1" si="0">OFFSET(B$8,7*(ROW()-2),0)</f>
-        <v>212</v>
+        <f t="shared" ref="D2:D49" ca="1" si="1">OFFSET(B$8,7*(ROW()-2),0)</f>
+        <v>243</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F49" ca="1" si="1">OFFSET(B$10,7*(ROW()-2),0)</f>
-        <v>17</v>
+        <f t="shared" ref="F2:F49" ca="1" si="2">OFFSET(B$10,7*(ROW()-2),0)</f>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G49" ca="1" si="2">OFFSET(B$11,7*(ROW()-2),0)</f>
-        <v>68</v>
+        <f t="shared" ref="G2:G49" ca="1" si="3">OFFSET(B$11,7*(ROW()-2),0)</f>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H49" ca="1" si="3">OFFSET(B$12,7*(ROW()-2),0)</f>
-        <v>100</v>
+        <f t="shared" ref="H2:H49" ca="1" si="4">OFFSET(B$12,7*(ROW()-2),0)</f>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I49" ca="1" si="4">OFFSET(B$13,7*(ROW()-2),0)</f>
-        <v>80.55556</v>
+        <f t="shared" ref="I2:I49" ca="1" si="5">OFFSET(B$13,7*(ROW()-2),0)</f>
+        <v>98.333336000000003</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6217,31 +6214,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
-      </c>
-      <c r="E3" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>87.222219999999993</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>87.777780000000007</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -6249,31 +6246,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>407</v>
-      </c>
-      <c r="E4" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>101.666664</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>81.111114999999998</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>64.44444</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6281,31 +6278,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>503</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>527</v>
-      </c>
-      <c r="E5" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>33.333331999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>67.5</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>87.222219999999993</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>68.333336000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6313,57 +6310,57 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>82.777780000000007</v>
+        <v>98.888885000000002</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>643</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>607</v>
-      </c>
-      <c r="E6" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>28.333334000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>56.428570000000001</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>170</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>150</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>88.333336000000003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>54.444443</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>702</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>718</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E70" ca="1" si="5">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>25</v>
+        <f t="shared" ref="E7:E49" ca="1" si="6">OFFSET(B$9,7*(ROW()-2),0)</f>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>31.25</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>65.294120000000007</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>190</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>150</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>83.333336000000003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>36.666668000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6371,31 +6368,31 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>832</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>803</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>67.777780000000007</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>30</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>76.666663999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6403,31 +6400,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>912</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>908</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>61.428570000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>67.777780000000007</v>
+        <v>26.11111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6435,31 +6432,31 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1017</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1008</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>59.047620000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>137</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.666668000000001</v>
+        <v>28.88889</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6467,31 +6464,31 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1117</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1113</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>54.545456000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>147</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>51.666668000000001</v>
+        <v>30.555554999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6499,31 +6496,31 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1212</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1238</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.571429999999999</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>62.77778</v>
+        <v>42.77778</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6531,57 +6528,57 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>80.55556</v>
+        <v>98.333336000000003</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1307</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1313</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>48.095238000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>171</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.111109999999996</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1427</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1438</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>51.363636</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>186</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45.333331999999999</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>58.333331999999999</v>
+        <v>32.22222</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6589,31 +6586,31 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1502</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1513</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>55.6</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>207</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.529409999999999</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>17.777778999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6621,31 +6618,31 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1623</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.380949999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>219</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.75</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.666668000000001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6653,31 +6650,31 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1707</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1728</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>231</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.538460000000001</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>65.55556</v>
+        <v>34.444443</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6685,31 +6682,31 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1827</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1818</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.478259999999999</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>248</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.923076999999999</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>68.333336000000003</v>
+        <v>37.77778</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6717,31 +6714,31 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1922</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1908</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>48.888890000000004</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>268</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.666668000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>63.888890000000004</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6749,57 +6746,57 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>87.222219999999993</v>
+        <v>87.777780000000007</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2012</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2018</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>37.619050000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>282</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.058822999999997</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>340</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>59.444443</v>
+        <v>47.22222</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2127</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2118</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39.565215999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>307</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.473681999999997</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>340</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>52.77778</v>
+        <v>40.555557</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6807,31 +6804,31 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2227</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2213</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>33.5</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.555557</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>340</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>58.333331999999999</v>
+        <v>53.333331999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6839,31 +6836,31 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2307</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2323</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.454543999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>336</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>32.63158</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>59.444443</v>
+        <v>47.22222</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6871,31 +6868,31 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2402</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2443</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>32.380949999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>358</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>34.761906000000003</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>52.77778</v>
+        <v>51.666668000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6903,31 +6900,31 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>101.666664</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2552</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2503</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>32.380949999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.521740000000001</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>46.111109999999996</v>
+        <v>51.111109999999996</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -6935,31 +6932,31 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2607</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2633</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.347828</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>382</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>38.75</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41.111109999999996</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -6967,57 +6964,57 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>81.111114999999998</v>
+        <v>64.44444</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2737</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2748</v>
       </c>
       <c r="E27" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.652172</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>401</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>38.333331999999999</v>
+        <v>43.333331999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2842</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2833</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>37.6</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>418</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>35.555557</v>
+        <v>36.666668000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -7025,31 +7022,31 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2937</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2948</v>
       </c>
       <c r="E29" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>36.666668000000001</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>433</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>33.888890000000004</v>
+        <v>39.444443</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -7057,31 +7054,31 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3012</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3013</v>
       </c>
       <c r="E30" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.583331999999999</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>447</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>38.888890000000004</v>
+        <v>42.22222</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -7089,31 +7086,31 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3112</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3118</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>38.518520000000002</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>467</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>38.888890000000004</v>
+        <v>30.555554999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -7121,31 +7118,31 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>33.333331999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3218</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.580646999999999</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>481</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.615383000000001</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>34.444443</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -7153,31 +7150,31 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3322</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3303</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.666668000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>496</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.23077</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>18.88889</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7185,57 +7182,57 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>87.222219999999993</v>
+        <v>68.333336000000003</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3412</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3408</v>
       </c>
       <c r="E34" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>38.965519999999998</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>510</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.714286999999999</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>28.333334000000001</v>
+        <v>25.555554999999998</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3502</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3513</v>
       </c>
       <c r="E35" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>38.518520000000002</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>521</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.111109999999996</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>30.555554999999998</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -7243,31 +7240,31 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3603</v>
       </c>
       <c r="E36" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.379309999999997</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>124</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>536</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.071429999999999</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>27.777778999999999</v>
+        <v>21.666665999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -7275,31 +7272,31 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3722</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3733</v>
       </c>
       <c r="E37" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.8125</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>546</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.384616999999999</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>33.333331999999999</v>
+        <v>12.222222</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -7307,31 +7304,31 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3807</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3823</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44.117645000000003</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>129</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>559</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>38.260868000000002</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42.77778</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -7339,31 +7336,31 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>28.333334000000001</v>
+        <v>56.428570000000001</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3922</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3943</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.333331999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>132</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>576</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.565215999999999</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>40.555557</v>
+        <v>8.8888890000000007</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7371,31 +7368,31 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4027</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4048</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>137</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>593</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.200000000000003</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>36.666668000000001</v>
+        <v>18.333334000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7403,57 +7400,57 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>88.333336000000003</v>
+        <v>54.444443</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4112</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4103</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39.642856999999999</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>603</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>35.555557</v>
+        <v>26.666665999999999</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4207</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4218</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.935482</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>146</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>621</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.4</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>34.444443</v>
+        <v>16.11111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7461,31 +7458,31 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4327</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4303</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.612904</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>151</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>639</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.214286999999999</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.333334000000001</v>
+        <v>16.666665999999999</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7493,31 +7490,31 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4447</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4403</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39.655174000000002</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>155</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>653</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>10.555555</v>
+        <v>24.444445000000002</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7525,31 +7522,31 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4517</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4523</v>
       </c>
       <c r="E45" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>145</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.4375</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>157</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>664</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45.161290000000001</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>12.777778</v>
+        <v>11.111110999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -7557,31 +7554,31 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>31.25</v>
+        <v>65.294120000000007</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4607</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4628</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.030304000000001</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>687</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>46.060608000000002</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1111110000000002</v>
+        <v>9.444445</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -7589,31 +7586,31 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4732</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4723</v>
       </c>
       <c r="E47" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>163</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>707</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>46.176470000000002</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I47" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3333333000000001</v>
+        <v>25.555554999999998</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -7621,57 +7618,57 @@
         <v>5</v>
       </c>
       <c r="B48">
-        <v>83.333336000000003</v>
+        <v>36.666668000000001</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4817</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4813</v>
       </c>
       <c r="E48" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>33.333331999999999</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>165</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>723</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.793101999999998</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>47.77778</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4902</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4928</v>
       </c>
       <c r="E49" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>157</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>168</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>738</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.870967999999998</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>36.666668000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -7679,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>832</v>
+        <v>803</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -7688,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -7697,7 +7694,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -7706,7 +7703,7 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>36</v>
+        <v>67.777780000000007</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -7715,7 +7712,7 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -7724,7 +7721,7 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>76.666663999999997</v>
+        <v>30</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -7736,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -7745,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -7754,7 +7751,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -7763,7 +7760,7 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>40</v>
+        <v>61.428570000000001</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -7772,7 +7769,7 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -7781,7 +7778,7 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>67.777780000000007</v>
+        <v>26.11111</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -7793,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -7802,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -7811,7 +7808,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -7820,7 +7817,7 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>59.047620000000002</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -7829,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -7838,7 +7835,7 @@
         <v>5</v>
       </c>
       <c r="B69">
-        <v>56.666668000000001</v>
+        <v>28.88889</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -7850,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -7859,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -7868,7 +7865,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -7877,7 +7874,7 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>45</v>
+        <v>54.545456000000001</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -7886,7 +7883,7 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="E75" s="1"/>
     </row>
@@ -7895,7 +7892,7 @@
         <v>5</v>
       </c>
       <c r="B76">
-        <v>51.666668000000001</v>
+        <v>30.555554999999998</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -7907,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>1212</v>
+        <v>1238</v>
       </c>
       <c r="E78" s="1"/>
     </row>
@@ -7916,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E79" s="1"/>
     </row>
@@ -7925,7 +7922,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -7934,7 +7931,7 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>43.571429999999999</v>
+        <v>48</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -7943,7 +7940,7 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E82" s="1"/>
     </row>
@@ -7952,7 +7949,7 @@
         <v>5</v>
       </c>
       <c r="B83">
-        <v>62.77778</v>
+        <v>42.77778</v>
       </c>
       <c r="E83" s="1"/>
     </row>
@@ -7964,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -7973,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E86" s="1"/>
     </row>
@@ -7982,7 +7979,7 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -7991,7 +7988,7 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>48</v>
+        <v>48.095238000000002</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -8000,7 +7997,7 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -8009,7 +8006,7 @@
         <v>5</v>
       </c>
       <c r="B90">
-        <v>56.111109999999996</v>
+        <v>40</v>
       </c>
       <c r="E90" s="1"/>
     </row>
@@ -8021,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>1427</v>
+        <v>1438</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -8030,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E93" s="1"/>
     </row>
@@ -8039,7 +8036,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -8048,7 +8045,7 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>45.333331999999999</v>
+        <v>51.363636</v>
       </c>
       <c r="E95" s="1"/>
     </row>
@@ -8057,7 +8054,7 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E96" s="1"/>
     </row>
@@ -8066,7 +8063,7 @@
         <v>5</v>
       </c>
       <c r="B97">
-        <v>58.333331999999999</v>
+        <v>32.22222</v>
       </c>
       <c r="E97" s="1"/>
     </row>
@@ -8078,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>1502</v>
+        <v>1513</v>
       </c>
       <c r="E99" s="1"/>
     </row>
@@ -8087,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E100" s="1"/>
     </row>
@@ -8096,7 +8093,7 @@
         <v>2</v>
       </c>
       <c r="B101">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="E101" s="1"/>
     </row>
@@ -8105,7 +8102,7 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>43.529409999999999</v>
+        <v>55.6</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -8114,7 +8111,7 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="E103" s="1"/>
     </row>
@@ -8123,7 +8120,7 @@
         <v>5</v>
       </c>
       <c r="B104">
-        <v>55</v>
+        <v>17.777778999999999</v>
       </c>
       <c r="E104" s="1"/>
     </row>
@@ -8135,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="E106" s="1"/>
     </row>
@@ -8144,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E107" s="1"/>
     </row>
@@ -8153,7 +8150,7 @@
         <v>2</v>
       </c>
       <c r="B108">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="E108" s="1"/>
     </row>
@@ -8162,7 +8159,7 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>43.75</v>
+        <v>42.380949999999999</v>
       </c>
       <c r="E109" s="1"/>
     </row>
@@ -8180,7 +8177,7 @@
         <v>5</v>
       </c>
       <c r="B111">
-        <v>56.666668000000001</v>
+        <v>45</v>
       </c>
       <c r="E111" s="1"/>
     </row>
@@ -8192,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>1707</v>
+        <v>1728</v>
       </c>
       <c r="E113" s="1"/>
     </row>
@@ -8201,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E114" s="1"/>
     </row>
@@ -8210,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="B115">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="E115" s="1"/>
     </row>
@@ -8219,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="B116">
-        <v>41.538460000000001</v>
+        <v>45</v>
       </c>
       <c r="E116" s="1"/>
     </row>
@@ -8228,7 +8225,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E117" s="1"/>
     </row>
@@ -8237,7 +8234,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>65.55556</v>
+        <v>34.444443</v>
       </c>
       <c r="E118" s="1"/>
     </row>
@@ -8249,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>1827</v>
+        <v>1818</v>
       </c>
       <c r="E120" s="1"/>
     </row>
@@ -8258,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E121" s="1"/>
     </row>
@@ -8267,7 +8264,7 @@
         <v>2</v>
       </c>
       <c r="B122">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="E122" s="1"/>
     </row>
@@ -8276,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>36.923076999999999</v>
+        <v>43.478259999999999</v>
       </c>
       <c r="E123" s="1"/>
     </row>
@@ -8294,7 +8291,7 @@
         <v>5</v>
       </c>
       <c r="B125">
-        <v>68.333336000000003</v>
+        <v>37.77778</v>
       </c>
       <c r="E125" s="1"/>
     </row>
@@ -8306,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <v>1922</v>
+        <v>1908</v>
       </c>
       <c r="E127" s="1"/>
     </row>
@@ -8315,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="B128">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E128" s="1"/>
     </row>
@@ -8324,7 +8321,7 @@
         <v>2</v>
       </c>
       <c r="B129">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="E129" s="1"/>
     </row>
@@ -8333,7 +8330,7 @@
         <v>3</v>
       </c>
       <c r="B130">
-        <v>36.666668000000001</v>
+        <v>48.888890000000004</v>
       </c>
       <c r="E130" s="1"/>
     </row>
@@ -8342,7 +8339,7 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="E131" s="1"/>
     </row>
@@ -8351,7 +8348,7 @@
         <v>5</v>
       </c>
       <c r="B132">
-        <v>63.888890000000004</v>
+        <v>20</v>
       </c>
       <c r="E132" s="1"/>
     </row>
@@ -8363,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E134" s="1"/>
     </row>
@@ -8372,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="B135">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E135" s="1"/>
     </row>
@@ -8381,7 +8378,7 @@
         <v>2</v>
       </c>
       <c r="B136">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="E136" s="1"/>
     </row>
@@ -8390,7 +8387,7 @@
         <v>3</v>
       </c>
       <c r="B137">
-        <v>37.058822999999997</v>
+        <v>37.619050000000001</v>
       </c>
       <c r="E137" s="1"/>
     </row>
@@ -8399,7 +8396,7 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E138" s="1"/>
     </row>
@@ -8408,7 +8405,7 @@
         <v>5</v>
       </c>
       <c r="B139">
-        <v>59.444443</v>
+        <v>47.22222</v>
       </c>
       <c r="E139" s="1"/>
     </row>
@@ -8420,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>2127</v>
+        <v>2118</v>
       </c>
       <c r="E141" s="1"/>
     </row>
@@ -8429,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="B142">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E142" s="1"/>
     </row>
@@ -8438,7 +8435,7 @@
         <v>2</v>
       </c>
       <c r="B143">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="E143" s="1"/>
     </row>
@@ -8447,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="B144">
-        <v>39.473681999999997</v>
+        <v>39.565215999999999</v>
       </c>
       <c r="E144" s="1"/>
     </row>
@@ -8456,7 +8453,7 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E145" s="1"/>
     </row>
@@ -8465,7 +8462,7 @@
         <v>5</v>
       </c>
       <c r="B146">
-        <v>52.77778</v>
+        <v>40.555557</v>
       </c>
       <c r="E146" s="1"/>
     </row>
@@ -8477,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>2227</v>
+        <v>2213</v>
       </c>
       <c r="E148" s="1"/>
     </row>
@@ -8486,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="B149">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E149" s="1"/>
     </row>
@@ -8495,7 +8492,7 @@
         <v>2</v>
       </c>
       <c r="B150">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="E150" s="1"/>
     </row>
@@ -8504,7 +8501,7 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>35.555557</v>
+        <v>33.5</v>
       </c>
       <c r="E151" s="1"/>
     </row>
@@ -8513,7 +8510,7 @@
         <v>4</v>
       </c>
       <c r="B152">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E152" s="1"/>
     </row>
@@ -8522,7 +8519,7 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>58.333331999999999</v>
+        <v>53.333331999999999</v>
       </c>
       <c r="E153" s="1"/>
     </row>
@@ -8534,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>2307</v>
+        <v>2323</v>
       </c>
       <c r="E155" s="1"/>
     </row>
@@ -8543,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="B156">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E156" s="1"/>
     </row>
@@ -8552,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="B157">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E157" s="1"/>
     </row>
@@ -8561,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>32.63158</v>
+        <v>35.454543999999999</v>
       </c>
       <c r="E158" s="1"/>
     </row>
@@ -8570,7 +8567,7 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E159" s="1"/>
     </row>
@@ -8579,7 +8576,7 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>59.444443</v>
+        <v>47.22222</v>
       </c>
       <c r="E160" s="1"/>
     </row>
@@ -8591,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="B162">
-        <v>2402</v>
+        <v>2443</v>
       </c>
       <c r="E162" s="1"/>
     </row>
@@ -8600,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="B163">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E163" s="1"/>
     </row>
@@ -8609,7 +8606,7 @@
         <v>2</v>
       </c>
       <c r="B164">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="E164" s="1"/>
     </row>
@@ -8618,7 +8615,7 @@
         <v>3</v>
       </c>
       <c r="B165">
-        <v>34.761906000000003</v>
+        <v>32.380949999999999</v>
       </c>
       <c r="E165" s="1"/>
     </row>
@@ -8627,7 +8624,7 @@
         <v>4</v>
       </c>
       <c r="B166">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E166" s="1"/>
     </row>
@@ -8636,7 +8633,7 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>52.77778</v>
+        <v>51.666668000000001</v>
       </c>
       <c r="E167" s="1"/>
     </row>
@@ -8648,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <v>2552</v>
+        <v>2503</v>
       </c>
       <c r="E169" s="1"/>
     </row>
@@ -8657,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E170" s="1"/>
     </row>
@@ -8666,7 +8663,7 @@
         <v>2</v>
       </c>
       <c r="B171">
-        <v>375</v>
+        <v>176</v>
       </c>
       <c r="E171" s="1"/>
     </row>
@@ -8675,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="B172">
-        <v>36.521740000000001</v>
+        <v>32.380949999999999</v>
       </c>
       <c r="E172" s="1"/>
     </row>
@@ -8684,7 +8681,7 @@
         <v>4</v>
       </c>
       <c r="B173">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E173" s="1"/>
     </row>
@@ -8693,7 +8690,7 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>46.111109999999996</v>
+        <v>51.111109999999996</v>
       </c>
       <c r="E174" s="1"/>
     </row>
@@ -8705,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>2607</v>
+        <v>2633</v>
       </c>
       <c r="E176" s="1"/>
     </row>
@@ -8714,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="B177">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E177" s="1"/>
     </row>
@@ -8723,7 +8720,7 @@
         <v>2</v>
       </c>
       <c r="B178">
-        <v>382</v>
+        <v>184</v>
       </c>
       <c r="E178" s="1"/>
     </row>
@@ -8732,7 +8729,7 @@
         <v>3</v>
       </c>
       <c r="B179">
-        <v>38.75</v>
+        <v>34.347828</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -8741,7 +8738,7 @@
         <v>4</v>
       </c>
       <c r="B180">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E180" s="1"/>
     </row>
@@ -8750,7 +8747,7 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>41.111109999999996</v>
+        <v>45</v>
       </c>
       <c r="E181" s="1"/>
     </row>
@@ -8762,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>2737</v>
+        <v>2748</v>
       </c>
       <c r="E183" s="1"/>
     </row>
@@ -8771,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="B184">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E184" s="1"/>
     </row>
@@ -8780,7 +8777,7 @@
         <v>2</v>
       </c>
       <c r="B185">
-        <v>401</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -8788,7 +8785,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>38.799999999999997</v>
+        <v>35.652172</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -8796,7 +8793,7 @@
         <v>4</v>
       </c>
       <c r="B187">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -8804,7 +8801,7 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>38.333331999999999</v>
+        <v>43.333331999999999</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -8812,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="B190">
-        <v>2842</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -8820,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -8828,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="B192">
-        <v>418</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -8836,7 +8833,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>40.799999999999997</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -8844,7 +8841,7 @@
         <v>4</v>
       </c>
       <c r="B194">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -8852,7 +8849,7 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>35.555557</v>
+        <v>36.666668000000001</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -8860,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="B197">
-        <v>2937</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,7 +8865,7 @@
         <v>1</v>
       </c>
       <c r="B198">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -8876,7 +8873,7 @@
         <v>2</v>
       </c>
       <c r="B199">
-        <v>433</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -8884,7 +8881,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>40</v>
+        <v>36.666668000000001</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -8892,7 +8889,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -8900,7 +8897,7 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>33.888890000000004</v>
+        <v>39.444443</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -8908,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="B204">
-        <v>3012</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -8916,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="B205">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -8924,7 +8921,7 @@
         <v>2</v>
       </c>
       <c r="B206">
-        <v>447</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -8932,7 +8929,7 @@
         <v>3</v>
       </c>
       <c r="B207">
-        <v>38</v>
+        <v>34.583331999999999</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -8940,7 +8937,7 @@
         <v>4</v>
       </c>
       <c r="B208">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -8948,7 +8945,7 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>38.888890000000004</v>
+        <v>42.22222</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -8956,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="B211">
-        <v>3112</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -8964,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="B212">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -8972,7 +8969,7 @@
         <v>2</v>
       </c>
       <c r="B213">
-        <v>467</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -8980,7 +8977,7 @@
         <v>3</v>
       </c>
       <c r="B214">
-        <v>38</v>
+        <v>38.518520000000002</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -8988,7 +8985,7 @@
         <v>4</v>
       </c>
       <c r="B215">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -8996,7 +8993,7 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>38.888890000000004</v>
+        <v>30.555554999999998</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -9004,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>3222</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -9012,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="B219">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -9020,7 +9017,7 @@
         <v>2</v>
       </c>
       <c r="B220">
-        <v>481</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -9028,7 +9025,7 @@
         <v>3</v>
       </c>
       <c r="B221">
-        <v>39.615383000000001</v>
+        <v>42.580646999999999</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -9036,7 +9033,7 @@
         <v>4</v>
       </c>
       <c r="B222">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -9044,7 +9041,7 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>34.444443</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -9052,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>3322</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -9060,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="B226">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -9068,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="B227">
-        <v>496</v>
+        <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -9076,7 +9073,7 @@
         <v>3</v>
       </c>
       <c r="B228">
-        <v>39.23077</v>
+        <v>41.666668000000001</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -9084,7 +9081,7 @@
         <v>4</v>
       </c>
       <c r="B229">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -9092,7 +9089,7 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>35</v>
+        <v>18.88889</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -9100,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>3412</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -9108,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="B233">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -9116,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="B234">
-        <v>510</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -9124,7 +9121,7 @@
         <v>3</v>
       </c>
       <c r="B235">
-        <v>40.714286999999999</v>
+        <v>38.965519999999998</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -9132,7 +9129,7 @@
         <v>4</v>
       </c>
       <c r="B236">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -9140,7 +9137,7 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>28.333334000000001</v>
+        <v>25.555554999999998</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -9148,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="B239">
-        <v>3502</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -9156,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="B240">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -9164,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="B241">
-        <v>521</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -9172,7 +9169,7 @@
         <v>3</v>
       </c>
       <c r="B242">
-        <v>41.111109999999996</v>
+        <v>38.518520000000002</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -9180,7 +9177,7 @@
         <v>4</v>
       </c>
       <c r="B243">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -9188,7 +9185,7 @@
         <v>5</v>
       </c>
       <c r="B244">
-        <v>30</v>
+        <v>30.555554999999998</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -9196,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="B246">
-        <v>3627</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -9204,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="B247">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -9212,7 +9209,7 @@
         <v>2</v>
       </c>
       <c r="B248">
-        <v>536</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -9220,7 +9217,7 @@
         <v>3</v>
       </c>
       <c r="B249">
-        <v>41.071429999999999</v>
+        <v>41.379309999999997</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -9228,7 +9225,7 @@
         <v>4</v>
       </c>
       <c r="B250">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -9236,7 +9233,7 @@
         <v>5</v>
       </c>
       <c r="B251">
-        <v>27.777778999999999</v>
+        <v>21.666665999999999</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -9244,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="B253">
-        <v>3722</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -9252,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="B254">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -9260,7 +9257,7 @@
         <v>2</v>
       </c>
       <c r="B255">
-        <v>546</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -9268,7 +9265,7 @@
         <v>3</v>
       </c>
       <c r="B256">
-        <v>40.384616999999999</v>
+        <v>42.8125</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -9276,7 +9273,7 @@
         <v>4</v>
       </c>
       <c r="B257">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -9284,7 +9281,7 @@
         <v>5</v>
       </c>
       <c r="B258">
-        <v>33.333331999999999</v>
+        <v>12.222222</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -9292,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="B260">
-        <v>3807</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -9300,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="B261">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -9308,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="B262">
-        <v>559</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -9316,7 +9313,7 @@
         <v>3</v>
       </c>
       <c r="B263">
-        <v>38.260868000000002</v>
+        <v>44.117645000000003</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -9324,7 +9321,7 @@
         <v>4</v>
       </c>
       <c r="B264">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -9332,7 +9329,7 @@
         <v>5</v>
       </c>
       <c r="B265">
-        <v>42.77778</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -9340,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="B267">
-        <v>3922</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -9348,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="B268">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -9356,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="B269">
-        <v>576</v>
+        <v>299</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -9364,7 +9361,7 @@
         <v>3</v>
       </c>
       <c r="B270">
-        <v>39.565215999999999</v>
+        <v>43.333331999999999</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -9372,7 +9369,7 @@
         <v>4</v>
       </c>
       <c r="B271">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -9380,7 +9377,7 @@
         <v>5</v>
       </c>
       <c r="B272">
-        <v>40.555557</v>
+        <v>8.8888890000000007</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -9388,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="B274">
-        <v>4027</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -9396,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="B275">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -9404,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="B276">
-        <v>593</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -9412,7 +9409,7 @@
         <v>3</v>
       </c>
       <c r="B277">
-        <v>39.200000000000003</v>
+        <v>42</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -9420,7 +9417,7 @@
         <v>4</v>
       </c>
       <c r="B278">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -9428,7 +9425,7 @@
         <v>5</v>
       </c>
       <c r="B279">
-        <v>36.666668000000001</v>
+        <v>18.333334000000001</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -9436,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="B281">
-        <v>4112</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -9444,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="B282">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -9452,7 +9449,7 @@
         <v>2</v>
       </c>
       <c r="B283">
-        <v>603</v>
+        <v>328</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -9460,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="B284">
-        <v>40</v>
+        <v>39.642856999999999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -9468,7 +9465,7 @@
         <v>4</v>
       </c>
       <c r="B285">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -9476,7 +9473,7 @@
         <v>5</v>
       </c>
       <c r="B286">
-        <v>35.555557</v>
+        <v>26.666665999999999</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -9484,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="B288">
-        <v>4207</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -9492,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="B289">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -9500,7 +9497,7 @@
         <v>2</v>
       </c>
       <c r="B290">
-        <v>621</v>
+        <v>328</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -9508,7 +9505,7 @@
         <v>3</v>
       </c>
       <c r="B291">
-        <v>40.4</v>
+        <v>41.935482</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -9516,7 +9513,7 @@
         <v>4</v>
       </c>
       <c r="B292">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -9524,7 +9521,7 @@
         <v>5</v>
       </c>
       <c r="B293">
-        <v>34.444443</v>
+        <v>16.11111</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -9532,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="B295">
-        <v>4327</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -9540,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="B296">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -9548,7 +9545,7 @@
         <v>2</v>
       </c>
       <c r="B297">
-        <v>639</v>
+        <v>332</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -9556,7 +9553,7 @@
         <v>3</v>
       </c>
       <c r="B298">
-        <v>43.214286999999999</v>
+        <v>41.612904</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -9564,7 +9561,7 @@
         <v>4</v>
       </c>
       <c r="B299">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -9572,7 +9569,7 @@
         <v>5</v>
       </c>
       <c r="B300">
-        <v>23.333334000000001</v>
+        <v>16.666665999999999</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -9580,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>4447</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -9588,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="B303">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -9596,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="B304">
-        <v>653</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -9604,7 +9601,7 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>45</v>
+        <v>39.655174000000002</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -9612,7 +9609,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -9620,7 +9617,7 @@
         <v>5</v>
       </c>
       <c r="B307">
-        <v>10.555555</v>
+        <v>24.444445000000002</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -9628,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="B309">
-        <v>4517</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -9636,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="B310">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -9644,7 +9641,7 @@
         <v>2</v>
       </c>
       <c r="B311">
-        <v>664</v>
+        <v>357</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -9652,7 +9649,7 @@
         <v>3</v>
       </c>
       <c r="B312">
-        <v>45.161290000000001</v>
+        <v>43.4375</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -9660,7 +9657,7 @@
         <v>4</v>
       </c>
       <c r="B313">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -9668,7 +9665,7 @@
         <v>5</v>
       </c>
       <c r="B314">
-        <v>12.777778</v>
+        <v>11.111110999999999</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -9676,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="B316">
-        <v>4607</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -9684,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="B317">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -9692,7 +9689,7 @@
         <v>2</v>
       </c>
       <c r="B318">
-        <v>687</v>
+        <v>365</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -9700,7 +9697,7 @@
         <v>3</v>
       </c>
       <c r="B319">
-        <v>46.060608000000002</v>
+        <v>43.030304000000001</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -9708,7 +9705,7 @@
         <v>4</v>
       </c>
       <c r="B320">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -9716,7 +9713,7 @@
         <v>5</v>
       </c>
       <c r="B321">
-        <v>6.1111110000000002</v>
+        <v>9.444445</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -9724,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="B323">
-        <v>4732</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -9732,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="B324">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -9740,7 +9737,7 @@
         <v>2</v>
       </c>
       <c r="B325">
-        <v>707</v>
+        <v>384</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -9748,7 +9745,7 @@
         <v>3</v>
       </c>
       <c r="B326">
-        <v>46.176470000000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -9756,7 +9753,7 @@
         <v>4</v>
       </c>
       <c r="B327">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -9764,7 +9761,7 @@
         <v>5</v>
       </c>
       <c r="B328">
-        <v>3.3333333000000001</v>
+        <v>25.555554999999998</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -9772,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="B330">
-        <v>4817</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -9780,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="B331">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -9788,7 +9785,7 @@
         <v>2</v>
       </c>
       <c r="B332">
-        <v>723</v>
+        <v>432</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -9796,7 +9793,7 @@
         <v>3</v>
       </c>
       <c r="B333">
-        <v>43.793101999999998</v>
+        <v>33.333331999999999</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -9804,7 +9801,7 @@
         <v>4</v>
       </c>
       <c r="B334">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -9812,7 +9809,7 @@
         <v>5</v>
       </c>
       <c r="B335">
-        <v>20</v>
+        <v>47.77778</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -9820,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="B337">
-        <v>4902</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -9828,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="B338">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -9836,7 +9833,7 @@
         <v>2</v>
       </c>
       <c r="B339">
-        <v>738</v>
+        <v>432</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -9844,7 +9841,7 @@
         <v>3</v>
       </c>
       <c r="B340">
-        <v>43.870967999999998</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -9852,7 +9849,7 @@
         <v>4</v>
       </c>
       <c r="B341">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -9860,7 +9857,7 @@
         <v>5</v>
       </c>
       <c r="B342">
-        <v>15</v>
+        <v>36.666668000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Project1JavaTry2/excel/bestFitData.xlsx
+++ b/Project1JavaTry2/excel/bestFitData.xlsx
@@ -631,7 +631,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -711,151 +710,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>423</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>643</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>718</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>803</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>908</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1008</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1238</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1313</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1513</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1623</c:v>
+                  <c:v>1627</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1728</c:v>
+                  <c:v>1707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1818</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1908</c:v>
+                  <c:v>1902</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2018</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2118</c:v>
+                  <c:v>2117</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2213</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2323</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2443</c:v>
+                  <c:v>2407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2503</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2633</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2748</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2833</c:v>
+                  <c:v>2827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2948</c:v>
+                  <c:v>2917</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3013</c:v>
+                  <c:v>3037</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3118</c:v>
+                  <c:v>3122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3218</c:v>
+                  <c:v>3207</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3303</c:v>
+                  <c:v>3307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3408</c:v>
+                  <c:v>3417</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3513</c:v>
+                  <c:v>3522</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3733</c:v>
+                  <c:v>3727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3823</c:v>
+                  <c:v>3852</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3943</c:v>
+                  <c:v>3912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4048</c:v>
+                  <c:v>4022</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4103</c:v>
+                  <c:v>4117</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4218</c:v>
+                  <c:v>4217</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4303</c:v>
+                  <c:v>4307</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4403</c:v>
+                  <c:v>4407</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4523</c:v>
+                  <c:v>4552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4628</c:v>
+                  <c:v>4607</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4723</c:v>
+                  <c:v>4717</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4813</c:v>
+                  <c:v>4842</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4928</c:v>
+                  <c:v>4902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,67 +866,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>70</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>74</c:v>
@@ -936,76 +935,76 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>82</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>95</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>97</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>104</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>119</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>122</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>125</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>128</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>130</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>132</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>135</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>137</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>140</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>148</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>151</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>154</c:v>
@@ -1062,151 +1061,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>423</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>643</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>718</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>803</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>908</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1008</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1238</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1313</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1513</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1623</c:v>
+                  <c:v>1627</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1728</c:v>
+                  <c:v>1707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1818</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1908</c:v>
+                  <c:v>1902</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2018</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2118</c:v>
+                  <c:v>2117</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2213</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2323</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2443</c:v>
+                  <c:v>2407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2503</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2633</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2748</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2833</c:v>
+                  <c:v>2827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2948</c:v>
+                  <c:v>2917</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3013</c:v>
+                  <c:v>3037</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3118</c:v>
+                  <c:v>3122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3218</c:v>
+                  <c:v>3207</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3303</c:v>
+                  <c:v>3307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3408</c:v>
+                  <c:v>3417</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3513</c:v>
+                  <c:v>3522</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3733</c:v>
+                  <c:v>3727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3823</c:v>
+                  <c:v>3852</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3943</c:v>
+                  <c:v>3912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4048</c:v>
+                  <c:v>4022</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4103</c:v>
+                  <c:v>4117</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4218</c:v>
+                  <c:v>4217</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4303</c:v>
+                  <c:v>4307</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4403</c:v>
+                  <c:v>4407</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4523</c:v>
+                  <c:v>4552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4628</c:v>
+                  <c:v>4607</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4723</c:v>
+                  <c:v>4717</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4813</c:v>
+                  <c:v>4842</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4928</c:v>
+                  <c:v>4902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,148 +1220,148 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>112</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>122</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>154</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>176</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>184</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>190</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>201</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>205</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>205</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>227</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>246</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>266</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>269</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>269</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>272</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>299</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>319</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>328</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>328</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>332</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>348</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>357</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>365</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>384</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>432</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>432</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-681948000"/>
-        <c:axId val="-681937120"/>
+        <c:axId val="313833664"/>
+        <c:axId val="313829312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-681948000"/>
+        <c:axId val="313833664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1428,7 +1427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1495,12 +1493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681937120"/>
+        <c:crossAx val="313829312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-681937120"/>
+        <c:axId val="313829312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1613,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681948000"/>
+        <c:crossAx val="313833664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1627,7 +1624,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1805,151 +1801,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>423</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>643</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>718</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>803</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>908</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1008</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1238</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1313</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1513</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1623</c:v>
+                  <c:v>1627</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1728</c:v>
+                  <c:v>1707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1818</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1908</c:v>
+                  <c:v>1902</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2018</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2118</c:v>
+                  <c:v>2117</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2213</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2323</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2443</c:v>
+                  <c:v>2407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2503</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2633</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2748</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2833</c:v>
+                  <c:v>2827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2948</c:v>
+                  <c:v>2917</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3013</c:v>
+                  <c:v>3037</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3118</c:v>
+                  <c:v>3122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3218</c:v>
+                  <c:v>3207</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3303</c:v>
+                  <c:v>3307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3408</c:v>
+                  <c:v>3417</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3513</c:v>
+                  <c:v>3522</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3733</c:v>
+                  <c:v>3727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3823</c:v>
+                  <c:v>3852</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3943</c:v>
+                  <c:v>3912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4048</c:v>
+                  <c:v>4022</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4103</c:v>
+                  <c:v>4117</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4218</c:v>
+                  <c:v>4217</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4303</c:v>
+                  <c:v>4307</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4403</c:v>
+                  <c:v>4407</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4523</c:v>
+                  <c:v>4552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4628</c:v>
+                  <c:v>4607</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4723</c:v>
+                  <c:v>4717</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4813</c:v>
+                  <c:v>4842</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4928</c:v>
+                  <c:v>4902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,151 +1957,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>78.333336000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.666664</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.428570000000001</c:v>
+                  <c:v>55.833331999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.294120000000007</c:v>
+                  <c:v>46.363636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.777780000000007</c:v>
+                  <c:v>46.666668000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.428570000000001</c:v>
+                  <c:v>58.461539999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.047620000000002</c:v>
+                  <c:v>67.058819999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.545456000000001</c:v>
+                  <c:v>62.666668000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>48.235294000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.095238000000002</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.363636</c:v>
+                  <c:v>48.823529999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.6</c:v>
+                  <c:v>52.22222</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.380949999999999</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>43.888890000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.478259999999999</c:v>
+                  <c:v>47.894736999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.888890000000004</c:v>
+                  <c:v>45.263157</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.619050000000001</c:v>
+                  <c:v>42.857143000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39.565215999999999</c:v>
+                  <c:v>33.68421</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.5</c:v>
+                  <c:v>35.714286999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.454543999999999</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.380949999999999</c:v>
+                  <c:v>36.956519999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.380949999999999</c:v>
+                  <c:v>40.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34.347828</c:v>
+                  <c:v>42.22222</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.652172</c:v>
+                  <c:v>44.482757999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>47.1875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.818182</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.259259999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.076923000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.034480000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.068966000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.666665999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.421053000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31.428571999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.913043999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.214286999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.407406000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.538460000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34.583331999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>38.518520000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42.580646999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38.965519999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38.518520000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41.379309999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42.8125</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44.117645000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39.642856999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41.935482</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41.612904</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>39.655174000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43.4375</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43.030304000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>33.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>37.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,11 +2116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-681944736"/>
-        <c:axId val="-681936032"/>
+        <c:axId val="313834208"/>
+        <c:axId val="313831488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-681944736"/>
+        <c:axId val="313834208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2182,12 +2178,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681936032"/>
+        <c:crossAx val="313831488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-681936032"/>
+        <c:axId val="313831488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,7 +2240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681944736"/>
+        <c:crossAx val="313834208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2408,151 +2404,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>423</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>643</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>718</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>803</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>908</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1008</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1238</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1313</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1513</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1623</c:v>
+                  <c:v>1627</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1728</c:v>
+                  <c:v>1707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1818</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1908</c:v>
+                  <c:v>1902</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2018</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2118</c:v>
+                  <c:v>2117</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2213</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2323</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2443</c:v>
+                  <c:v>2407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2503</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2633</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2748</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2833</c:v>
+                  <c:v>2827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2948</c:v>
+                  <c:v>2917</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3013</c:v>
+                  <c:v>3037</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3118</c:v>
+                  <c:v>3122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3218</c:v>
+                  <c:v>3207</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3303</c:v>
+                  <c:v>3307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3408</c:v>
+                  <c:v>3417</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3513</c:v>
+                  <c:v>3522</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3733</c:v>
+                  <c:v>3727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3823</c:v>
+                  <c:v>3852</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3943</c:v>
+                  <c:v>3912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4048</c:v>
+                  <c:v>4022</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4103</c:v>
+                  <c:v>4117</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4218</c:v>
+                  <c:v>4217</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4303</c:v>
+                  <c:v>4307</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4403</c:v>
+                  <c:v>4407</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4523</c:v>
+                  <c:v>4552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4628</c:v>
+                  <c:v>4607</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4723</c:v>
+                  <c:v>4717</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4813</c:v>
+                  <c:v>4842</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4928</c:v>
+                  <c:v>4902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,142 +2569,142 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>220</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>220</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>240</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>280</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>300</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>330</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>350</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>350</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>370</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>370</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>370</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>370</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>370</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>370</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>390</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>390</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2723,11 +2719,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-681940384"/>
-        <c:axId val="-681944192"/>
+        <c:axId val="313834752"/>
+        <c:axId val="313833120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-681940384"/>
+        <c:axId val="313834752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2785,12 +2781,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681944192"/>
+        <c:crossAx val="313833120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-681944192"/>
+        <c:axId val="313833120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,7 +2843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681940384"/>
+        <c:crossAx val="313834752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3007,151 +3003,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>423</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>643</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>718</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>803</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>908</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1008</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1113</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1238</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1313</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1438</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1513</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1623</c:v>
+                  <c:v>1627</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1728</c:v>
+                  <c:v>1707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1818</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1908</c:v>
+                  <c:v>1902</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2018</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2118</c:v>
+                  <c:v>2117</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2213</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2323</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2443</c:v>
+                  <c:v>2407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2503</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2633</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2748</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2833</c:v>
+                  <c:v>2827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2948</c:v>
+                  <c:v>2917</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3013</c:v>
+                  <c:v>3037</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3118</c:v>
+                  <c:v>3122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3218</c:v>
+                  <c:v>3207</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3303</c:v>
+                  <c:v>3307</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3408</c:v>
+                  <c:v>3417</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3513</c:v>
+                  <c:v>3522</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3603</c:v>
+                  <c:v>3607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3733</c:v>
+                  <c:v>3727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3823</c:v>
+                  <c:v>3852</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3943</c:v>
+                  <c:v>3912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4048</c:v>
+                  <c:v>4022</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4103</c:v>
+                  <c:v>4117</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4218</c:v>
+                  <c:v>4217</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4303</c:v>
+                  <c:v>4307</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4403</c:v>
+                  <c:v>4407</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4523</c:v>
+                  <c:v>4552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4628</c:v>
+                  <c:v>4607</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4723</c:v>
+                  <c:v>4717</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4813</c:v>
+                  <c:v>4842</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4928</c:v>
+                  <c:v>4902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3163,151 +3159,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>98.888885000000002</c:v>
+                  <c:v>91.111114999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.333336000000003</c:v>
+                  <c:v>78.888885000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.777780000000007</c:v>
+                  <c:v>72.777780000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.44444</c:v>
+                  <c:v>60.555557</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>53.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>68.333336000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>54.444443</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.666668000000001</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>65.55556</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>53.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.77778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.77778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.111109999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.111109999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.77778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.22222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>26.11111</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.88889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.555554999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.77778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.22222</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="26">
                   <c:v>17.777778999999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.444443</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37.77778</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
+                  <c:v>5.5555553</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.777778</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.222222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55.555557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.444443</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.444445000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.222221000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>47.22222</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40.555557</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>53.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>47.22222</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>51.111109999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>36.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36.111109999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>39.444443</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>42.22222</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.555554999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>18.88889</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>25.555554999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30.555554999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21.666665999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.222222</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.8888890000000007</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18.333334000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>26.666665999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16.11111</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16.666665999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24.444445000000002</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.111110999999999</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.444445</c:v>
+                  <c:v>28.333334000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>25.555554999999998</c:v>
+                  <c:v>31.666665999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.77778</c:v>
+                  <c:v>32.77778</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>36.666668000000001</c:v>
+                  <c:v>31.666665999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,11 +3318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-681949088"/>
-        <c:axId val="-681948544"/>
+        <c:axId val="2014749344"/>
+        <c:axId val="2014761312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-681949088"/>
+        <c:axId val="2014749344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -3384,12 +3380,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681948544"/>
+        <c:crossAx val="2014761312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-681948544"/>
+        <c:axId val="2014761312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681949088"/>
+        <c:crossAx val="2014749344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6135,7 +6131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:I49"/>
     </sheetView>
   </sheetViews>
@@ -6149,15 +6145,15 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1">
         <f ca="1">OFFSET(B$8,7*(ROW()-2),0)</f>
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" ref="E1:E6" ca="1" si="0">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1">
         <f ca="1">OFFSET(B$10,7*(ROW()-2),0)</f>
@@ -6165,7 +6161,7 @@
       </c>
       <c r="G1" s="1">
         <f ca="1">OFFSET(B$11,7*(ROW()-2),0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1">
         <f ca="1">OFFSET(B$12,7*(ROW()-2),0)</f>
@@ -6173,7 +6169,7 @@
       </c>
       <c r="I1" s="1">
         <f ca="1">OFFSET(B$13,7*(ROW()-2),0)</f>
-        <v>98.888885000000002</v>
+        <v>91.111114999999998</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6181,24 +6177,24 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D49" ca="1" si="1">OFFSET(B$8,7*(ROW()-2),0)</f>
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F49" ca="1" si="2">OFFSET(B$10,7*(ROW()-2),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G49" ca="1" si="3">OFFSET(B$11,7*(ROW()-2),0)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H49" ca="1" si="4">OFFSET(B$12,7*(ROW()-2),0)</f>
@@ -6206,7 +6202,7 @@
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I49" ca="1" si="5">OFFSET(B$13,7*(ROW()-2),0)</f>
-        <v>98.333336000000003</v>
+        <v>78.888885000000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6218,19 +6214,19 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>78.333336000000003</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6238,7 +6234,7 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>87.777780000000007</v>
+        <v>72.777780000000007</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -6246,11 +6242,11 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -6258,19 +6254,19 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>101.666664</v>
+        <v>85</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>64.44444</v>
+        <v>60.555557</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6282,15 +6278,15 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -6298,11 +6294,11 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>68.333336000000003</v>
+        <v>53.333331999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6310,57 +6306,57 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98.888885000000002</v>
+        <v>91.111114999999998</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.428570000000001</v>
+        <v>55.833331999999999</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>54.444443</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ref="E7:E49" ca="1" si="6">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65.294120000000007</v>
+        <v>46.363636</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>36.666668000000001</v>
+        <v>68.333336000000003</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6368,31 +6364,31 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>67.777780000000007</v>
+        <v>46.666668000000001</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>65.55556</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6400,31 +6396,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>61.428570000000001</v>
+        <v>58.461539999999999</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>26.11111</v>
+        <v>53.888890000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6432,31 +6428,31 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1008</v>
+        <v>1042</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>59.047620000000002</v>
+        <v>67.058819999999997</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>28.88889</v>
+        <v>32.77778</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6464,11 +6460,11 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -6476,19 +6472,19 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.545456000000001</v>
+        <v>62.666668000000001</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30.555554999999998</v>
+        <v>43.888890000000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6500,27 +6496,27 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1238</v>
+        <v>1207</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>48.235294000000003</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42.77778</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6528,57 +6524,57 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>98.333336000000003</v>
+        <v>78.888885000000002</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1313</v>
+        <v>1322</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48.095238000000002</v>
+        <v>56.5</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>32.77778</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51.363636</v>
+        <v>48.823529999999998</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>32.22222</v>
+        <v>48.333331999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6586,31 +6582,31 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>55.6</v>
+        <v>52.22222</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>17.777778999999999</v>
+        <v>41.666668000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6618,31 +6614,31 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.380949999999999</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>61.111109999999996</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6650,31 +6646,31 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>43.888890000000004</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>34.444443</v>
+        <v>48.888890000000004</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6682,31 +6678,31 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>78.333336000000003</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.478259999999999</v>
+        <v>47.894736999999999</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>37.77778</v>
+        <v>41.111109999999996</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6718,27 +6714,27 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48.888890000000004</v>
+        <v>45.263157</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>43.333331999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6746,23 +6742,23 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>87.777780000000007</v>
+        <v>72.777780000000007</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2018</v>
+        <v>2057</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.619050000000001</v>
+        <v>42.857143000000001</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6770,33 +6766,33 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>47.22222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.565215999999999</v>
+        <v>33.68421</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>40.555557</v>
+        <v>53.888890000000004</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6804,11 +6800,11 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -6816,19 +6812,19 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33.5</v>
+        <v>35.714286999999999</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>53.333331999999999</v>
+        <v>47.77778</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6840,7 +6836,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2323</v>
+        <v>2352</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -6848,19 +6844,19 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>35.454543999999999</v>
+        <v>35</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>47.22222</v>
+        <v>46.666668000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6868,31 +6864,31 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2443</v>
+        <v>2407</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>32.380949999999999</v>
+        <v>36.956519999999998</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>51.666668000000001</v>
+        <v>42.22222</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6900,31 +6896,31 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>101.666664</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2503</v>
+        <v>2517</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>32.380949999999999</v>
+        <v>40.4</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>51.111109999999996</v>
+        <v>33.333331999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -6932,31 +6928,31 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2633</v>
+        <v>2622</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.347828</v>
+        <v>42.22222</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>26.11111</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -6964,57 +6960,57 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>64.44444</v>
+        <v>60.555557</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2748</v>
+        <v>2712</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>35.652172</v>
+        <v>44.482757999999997</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43.333331999999999</v>
+        <v>17.777778999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2833</v>
+        <v>2827</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.6</v>
+        <v>47.1875</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>36.666668000000001</v>
+        <v>5.5555553</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -7022,31 +7018,31 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2948</v>
+        <v>2917</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.666668000000001</v>
+        <v>46</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>39.444443</v>
+        <v>12.777778</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -7054,31 +7050,31 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3013</v>
+        <v>3037</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.583331999999999</v>
+        <v>46</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42.22222</v>
+        <v>12.222222</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -7086,31 +7082,31 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38.518520000000002</v>
+        <v>29.5</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30.555554999999998</v>
+        <v>55.555557</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -7122,27 +7118,27 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3218</v>
+        <v>3207</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.580646999999999</v>
+        <v>31.818182</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>49.444443</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -7150,31 +7146,31 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3303</v>
+        <v>3307</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.666668000000001</v>
+        <v>39.259259999999998</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>18.88889</v>
+        <v>29.444445000000002</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7182,57 +7178,57 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>68.333336000000003</v>
+        <v>53.333331999999999</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3408</v>
+        <v>3417</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38.965519999999998</v>
+        <v>38.076923000000001</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>25.555554999999998</v>
+        <v>33.333331999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3513</v>
+        <v>3522</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38.518520000000002</v>
+        <v>41.034480000000002</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30.555554999999998</v>
+        <v>22.222221000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -7240,31 +7236,31 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3603</v>
+        <v>3607</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.379309999999997</v>
+        <v>42.068966000000003</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>21.666665999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -7272,31 +7268,31 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3733</v>
+        <v>3727</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.8125</v>
+        <v>32.5</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>12.222222</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -7304,31 +7300,31 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3823</v>
+        <v>3852</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.117645000000003</v>
+        <v>26.666665999999999</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>58.888890000000004</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -7336,31 +7332,31 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>56.428570000000001</v>
+        <v>55.833331999999999</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3943</v>
+        <v>3912</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.333331999999999</v>
+        <v>26.666665999999999</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8888890000000007</v>
+        <v>58.888890000000004</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7368,31 +7364,31 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4048</v>
+        <v>4022</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>28.421053000000001</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>18.333334000000001</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7400,57 +7396,57 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>54.444443</v>
+        <v>60</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4103</v>
+        <v>4117</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.642856999999999</v>
+        <v>31.428571999999999</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>26.666665999999999</v>
+        <v>48.333331999999999</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.935482</v>
+        <v>33.913043999999999</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>16.11111</v>
+        <v>41.666668000000001</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7458,31 +7454,31 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4303</v>
+        <v>4307</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.612904</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>16.666665999999999</v>
+        <v>36.111109999999996</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7490,31 +7486,31 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4403</v>
+        <v>4407</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.655174000000002</v>
+        <v>33.75</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24.444445000000002</v>
+        <v>39.444443</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7522,31 +7518,31 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4523</v>
+        <v>4552</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.4375</v>
+        <v>38.214286999999999</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>11.111110999999999</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -7554,31 +7550,31 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>65.294120000000007</v>
+        <v>46.363636</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4628</v>
+        <v>4607</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.030304000000001</v>
+        <v>37.407406000000002</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.444445</v>
+        <v>28.333334000000001</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -7586,31 +7582,31 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4723</v>
+        <v>4717</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>36.538460000000001</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>25.555554999999998</v>
+        <v>31.666665999999999</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -7618,11 +7614,11 @@
         <v>5</v>
       </c>
       <c r="B48">
-        <v>36.666668000000001</v>
+        <v>68.333336000000003</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4813</v>
+        <v>4842</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -7630,25 +7626,25 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33.333331999999999</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>47.77778</v>
+        <v>32.77778</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4928</v>
+        <v>4902</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -7656,19 +7652,19 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>36.666668000000001</v>
+        <v>31.666665999999999</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -7676,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -7685,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -7694,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -7703,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>67.777780000000007</v>
+        <v>46.666668000000001</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -7712,7 +7708,7 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -7721,7 +7717,7 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>30</v>
+        <v>65.55556</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -7733,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -7742,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -7751,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -7760,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>61.428570000000001</v>
+        <v>58.461539999999999</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -7769,7 +7765,7 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -7778,7 +7774,7 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>26.11111</v>
+        <v>53.888890000000004</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -7790,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>1008</v>
+        <v>1042</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -7799,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -7808,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -7817,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>59.047620000000002</v>
+        <v>67.058819999999997</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -7826,7 +7822,7 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -7835,7 +7831,7 @@
         <v>5</v>
       </c>
       <c r="B69">
-        <v>28.88889</v>
+        <v>32.77778</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -7847,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -7865,7 +7861,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -7874,7 +7870,7 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>54.545456000000001</v>
+        <v>62.666668000000001</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -7883,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E75" s="1"/>
     </row>
@@ -7892,7 +7888,7 @@
         <v>5</v>
       </c>
       <c r="B76">
-        <v>30.555554999999998</v>
+        <v>43.888890000000004</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -7904,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>1238</v>
+        <v>1207</v>
       </c>
       <c r="E78" s="1"/>
     </row>
@@ -7913,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E79" s="1"/>
     </row>
@@ -7922,7 +7918,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -7931,7 +7927,7 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>48</v>
+        <v>48.235294000000003</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -7940,7 +7936,7 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E82" s="1"/>
     </row>
@@ -7949,7 +7945,7 @@
         <v>5</v>
       </c>
       <c r="B83">
-        <v>42.77778</v>
+        <v>50</v>
       </c>
       <c r="E83" s="1"/>
     </row>
@@ -7961,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>1313</v>
+        <v>1322</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -7970,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E86" s="1"/>
     </row>
@@ -7979,7 +7975,7 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -7988,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>48.095238000000002</v>
+        <v>56.5</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -7997,7 +7993,7 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -8006,7 +8002,7 @@
         <v>5</v>
       </c>
       <c r="B90">
-        <v>40</v>
+        <v>32.77778</v>
       </c>
       <c r="E90" s="1"/>
     </row>
@@ -8018,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -8027,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E93" s="1"/>
     </row>
@@ -8036,7 +8032,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -8045,7 +8041,7 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>51.363636</v>
+        <v>48.823529999999998</v>
       </c>
       <c r="E95" s="1"/>
     </row>
@@ -8054,7 +8050,7 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E96" s="1"/>
     </row>
@@ -8063,7 +8059,7 @@
         <v>5</v>
       </c>
       <c r="B97">
-        <v>32.22222</v>
+        <v>48.333331999999999</v>
       </c>
       <c r="E97" s="1"/>
     </row>
@@ -8075,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="E99" s="1"/>
     </row>
@@ -8084,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E100" s="1"/>
     </row>
@@ -8093,7 +8089,7 @@
         <v>2</v>
       </c>
       <c r="B101">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E101" s="1"/>
     </row>
@@ -8102,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>55.6</v>
+        <v>52.22222</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -8111,7 +8107,7 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E103" s="1"/>
     </row>
@@ -8120,7 +8116,7 @@
         <v>5</v>
       </c>
       <c r="B104">
-        <v>17.777778999999999</v>
+        <v>41.666668000000001</v>
       </c>
       <c r="E104" s="1"/>
     </row>
@@ -8132,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="E106" s="1"/>
     </row>
@@ -8141,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E107" s="1"/>
     </row>
@@ -8150,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="B108">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E108" s="1"/>
     </row>
@@ -8159,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>42.380949999999999</v>
+        <v>38</v>
       </c>
       <c r="E109" s="1"/>
     </row>
@@ -8168,7 +8164,7 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E110" s="1"/>
     </row>
@@ -8177,7 +8173,7 @@
         <v>5</v>
       </c>
       <c r="B111">
-        <v>45</v>
+        <v>61.111109999999996</v>
       </c>
       <c r="E111" s="1"/>
     </row>
@@ -8189,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="E113" s="1"/>
     </row>
@@ -8198,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E114" s="1"/>
     </row>
@@ -8207,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="B115">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E115" s="1"/>
     </row>
@@ -8216,7 +8212,7 @@
         <v>3</v>
       </c>
       <c r="B116">
-        <v>45</v>
+        <v>43.888890000000004</v>
       </c>
       <c r="E116" s="1"/>
     </row>
@@ -8225,7 +8221,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E117" s="1"/>
     </row>
@@ -8234,7 +8230,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>34.444443</v>
+        <v>48.888890000000004</v>
       </c>
       <c r="E118" s="1"/>
     </row>
@@ -8246,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E120" s="1"/>
     </row>
@@ -8255,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E121" s="1"/>
     </row>
@@ -8264,7 +8260,7 @@
         <v>2</v>
       </c>
       <c r="B122">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E122" s="1"/>
     </row>
@@ -8273,7 +8269,7 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>43.478259999999999</v>
+        <v>47.894736999999999</v>
       </c>
       <c r="E123" s="1"/>
     </row>
@@ -8282,7 +8278,7 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E124" s="1"/>
     </row>
@@ -8291,7 +8287,7 @@
         <v>5</v>
       </c>
       <c r="B125">
-        <v>37.77778</v>
+        <v>41.111109999999996</v>
       </c>
       <c r="E125" s="1"/>
     </row>
@@ -8303,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="E127" s="1"/>
     </row>
@@ -8312,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="B128">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E128" s="1"/>
     </row>
@@ -8321,7 +8317,7 @@
         <v>2</v>
       </c>
       <c r="B129">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E129" s="1"/>
     </row>
@@ -8330,7 +8326,7 @@
         <v>3</v>
       </c>
       <c r="B130">
-        <v>48.888890000000004</v>
+        <v>45.263157</v>
       </c>
       <c r="E130" s="1"/>
     </row>
@@ -8339,7 +8335,7 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E131" s="1"/>
     </row>
@@ -8348,7 +8344,7 @@
         <v>5</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>43.333331999999999</v>
       </c>
       <c r="E132" s="1"/>
     </row>
@@ -8360,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>2018</v>
+        <v>2057</v>
       </c>
       <c r="E134" s="1"/>
     </row>
@@ -8369,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="B135">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E135" s="1"/>
     </row>
@@ -8378,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="B136">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E136" s="1"/>
     </row>
@@ -8387,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="B137">
-        <v>37.619050000000001</v>
+        <v>42.857143000000001</v>
       </c>
       <c r="E137" s="1"/>
     </row>
@@ -8405,7 +8401,7 @@
         <v>5</v>
       </c>
       <c r="B139">
-        <v>47.22222</v>
+        <v>40</v>
       </c>
       <c r="E139" s="1"/>
     </row>
@@ -8417,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E141" s="1"/>
     </row>
@@ -8426,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="B142">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E142" s="1"/>
     </row>
@@ -8435,7 +8431,7 @@
         <v>2</v>
       </c>
       <c r="B143">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E143" s="1"/>
     </row>
@@ -8444,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="B144">
-        <v>39.565215999999999</v>
+        <v>33.68421</v>
       </c>
       <c r="E144" s="1"/>
     </row>
@@ -8453,7 +8449,7 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="E145" s="1"/>
     </row>
@@ -8462,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="B146">
-        <v>40.555557</v>
+        <v>53.888890000000004</v>
       </c>
       <c r="E146" s="1"/>
     </row>
@@ -8474,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E148" s="1"/>
     </row>
@@ -8492,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="B150">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E150" s="1"/>
     </row>
@@ -8501,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>33.5</v>
+        <v>35.714286999999999</v>
       </c>
       <c r="E151" s="1"/>
     </row>
@@ -8510,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="B152">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="E152" s="1"/>
     </row>
@@ -8519,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>53.333331999999999</v>
+        <v>47.77778</v>
       </c>
       <c r="E153" s="1"/>
     </row>
@@ -8531,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>2323</v>
+        <v>2352</v>
       </c>
       <c r="E155" s="1"/>
     </row>
@@ -8549,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="B157">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E157" s="1"/>
     </row>
@@ -8558,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>35.454543999999999</v>
+        <v>35</v>
       </c>
       <c r="E158" s="1"/>
     </row>
@@ -8567,7 +8563,7 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="E159" s="1"/>
     </row>
@@ -8576,7 +8572,7 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>47.22222</v>
+        <v>46.666668000000001</v>
       </c>
       <c r="E160" s="1"/>
     </row>
@@ -8588,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="B162">
-        <v>2443</v>
+        <v>2407</v>
       </c>
       <c r="E162" s="1"/>
     </row>
@@ -8597,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="B163">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E163" s="1"/>
     </row>
@@ -8606,7 +8602,7 @@
         <v>2</v>
       </c>
       <c r="B164">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E164" s="1"/>
     </row>
@@ -8615,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="B165">
-        <v>32.380949999999999</v>
+        <v>36.956519999999998</v>
       </c>
       <c r="E165" s="1"/>
     </row>
@@ -8624,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="B166">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="E166" s="1"/>
     </row>
@@ -8633,7 +8629,7 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>51.666668000000001</v>
+        <v>42.22222</v>
       </c>
       <c r="E167" s="1"/>
     </row>
@@ -8645,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <v>2503</v>
+        <v>2517</v>
       </c>
       <c r="E169" s="1"/>
     </row>
@@ -8654,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E170" s="1"/>
     </row>
@@ -8663,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="B171">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E171" s="1"/>
     </row>
@@ -8672,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="B172">
-        <v>32.380949999999999</v>
+        <v>40.4</v>
       </c>
       <c r="E172" s="1"/>
     </row>
@@ -8681,7 +8677,7 @@
         <v>4</v>
       </c>
       <c r="B173">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="E173" s="1"/>
     </row>
@@ -8690,7 +8686,7 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>51.111109999999996</v>
+        <v>33.333331999999999</v>
       </c>
       <c r="E174" s="1"/>
     </row>
@@ -8702,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>2633</v>
+        <v>2622</v>
       </c>
       <c r="E176" s="1"/>
     </row>
@@ -8711,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="B177">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E177" s="1"/>
     </row>
@@ -8720,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="B178">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="E178" s="1"/>
     </row>
@@ -8729,7 +8725,7 @@
         <v>3</v>
       </c>
       <c r="B179">
-        <v>34.347828</v>
+        <v>42.22222</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -8738,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="B180">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="E180" s="1"/>
     </row>
@@ -8747,7 +8743,7 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>45</v>
+        <v>26.11111</v>
       </c>
       <c r="E181" s="1"/>
     </row>
@@ -8759,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>2748</v>
+        <v>2712</v>
       </c>
       <c r="E183" s="1"/>
     </row>
@@ -8768,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="B184">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E184" s="1"/>
     </row>
@@ -8777,7 +8773,7 @@
         <v>2</v>
       </c>
       <c r="B185">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -8785,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>35.652172</v>
+        <v>44.482757999999997</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -8793,7 +8789,7 @@
         <v>4</v>
       </c>
       <c r="B187">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -8801,7 +8797,7 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>43.333331999999999</v>
+        <v>17.777778999999999</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -8809,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="B190">
-        <v>2833</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -8817,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -8825,7 +8821,7 @@
         <v>2</v>
       </c>
       <c r="B192">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -8833,7 +8829,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>37.6</v>
+        <v>47.1875</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +8837,7 @@
         <v>4</v>
       </c>
       <c r="B194">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -8849,7 +8845,7 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>36.666668000000001</v>
+        <v>5.5555553</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -8857,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="B197">
-        <v>2948</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -8865,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="B198">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -8873,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="B199">
-        <v>201</v>
+        <v>153</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -8881,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>36.666668000000001</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -8889,7 +8885,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -8897,7 +8893,7 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>39.444443</v>
+        <v>12.777778</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -8905,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="B204">
-        <v>3013</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="B205">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -8921,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="B206">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -8929,7 +8925,7 @@
         <v>3</v>
       </c>
       <c r="B207">
-        <v>34.583331999999999</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -8937,7 +8933,7 @@
         <v>4</v>
       </c>
       <c r="B208">
-        <v>390</v>
+        <v>410</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -8945,7 +8941,7 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>42.22222</v>
+        <v>12.222222</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -8953,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="B211">
-        <v>3118</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -8961,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="B212">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -8969,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="B213">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -8977,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="B214">
-        <v>38.518520000000002</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +8981,7 @@
         <v>4</v>
       </c>
       <c r="B215">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -8993,7 +8989,7 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>30.555554999999998</v>
+        <v>55.555557</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -9001,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>3218</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -9009,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="B219">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -9017,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="B220">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -9025,7 +9021,7 @@
         <v>3</v>
       </c>
       <c r="B221">
-        <v>42.580646999999999</v>
+        <v>31.818182</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -9033,7 +9029,7 @@
         <v>4</v>
       </c>
       <c r="B222">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -9041,7 +9037,7 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>15</v>
+        <v>49.444443</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -9049,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>3303</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -9057,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="B226">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -9065,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="B227">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -9073,7 +9069,7 @@
         <v>3</v>
       </c>
       <c r="B228">
-        <v>41.666668000000001</v>
+        <v>39.259259999999998</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -9081,7 +9077,7 @@
         <v>4</v>
       </c>
       <c r="B229">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -9089,7 +9085,7 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>18.88889</v>
+        <v>29.444445000000002</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -9097,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>3408</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -9105,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="B233">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -9113,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="B234">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -9121,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="B235">
-        <v>38.965519999999998</v>
+        <v>38.076923000000001</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -9129,7 +9125,7 @@
         <v>4</v>
       </c>
       <c r="B236">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -9137,7 +9133,7 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>25.555554999999998</v>
+        <v>33.333331999999999</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -9145,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="B239">
-        <v>3513</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -9153,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="B240">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -9161,7 +9157,7 @@
         <v>2</v>
       </c>
       <c r="B241">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -9169,7 +9165,7 @@
         <v>3</v>
       </c>
       <c r="B242">
-        <v>38.518520000000002</v>
+        <v>41.034480000000002</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -9177,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="B243">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -9185,7 +9181,7 @@
         <v>5</v>
       </c>
       <c r="B244">
-        <v>30.555554999999998</v>
+        <v>22.222221000000001</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -9193,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="B246">
-        <v>3603</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -9201,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="B247">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -9209,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="B248">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -9217,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="B249">
-        <v>41.379309999999997</v>
+        <v>42.068966000000003</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -9225,7 +9221,7 @@
         <v>4</v>
       </c>
       <c r="B250">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -9233,7 +9229,7 @@
         <v>5</v>
       </c>
       <c r="B251">
-        <v>21.666665999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -9241,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="B253">
-        <v>3733</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -9249,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="B254">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -9257,7 +9253,7 @@
         <v>2</v>
       </c>
       <c r="B255">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -9265,7 +9261,7 @@
         <v>3</v>
       </c>
       <c r="B256">
-        <v>42.8125</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -9273,7 +9269,7 @@
         <v>4</v>
       </c>
       <c r="B257">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -9281,7 +9277,7 @@
         <v>5</v>
       </c>
       <c r="B258">
-        <v>12.222222</v>
+        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -9289,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="B260">
-        <v>3823</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -9297,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="B261">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -9305,7 +9301,7 @@
         <v>2</v>
       </c>
       <c r="B262">
-        <v>272</v>
+        <v>311</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -9313,7 +9309,7 @@
         <v>3</v>
       </c>
       <c r="B263">
-        <v>44.117645000000003</v>
+        <v>26.666665999999999</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -9321,7 +9317,7 @@
         <v>4</v>
       </c>
       <c r="B264">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -9329,7 +9325,7 @@
         <v>5</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>58.888890000000004</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -9337,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="B267">
-        <v>3943</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -9345,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="B268">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -9353,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="B269">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -9361,7 +9357,7 @@
         <v>3</v>
       </c>
       <c r="B270">
-        <v>43.333331999999999</v>
+        <v>26.666665999999999</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -9369,7 +9365,7 @@
         <v>4</v>
       </c>
       <c r="B271">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -9377,7 +9373,7 @@
         <v>5</v>
       </c>
       <c r="B272">
-        <v>8.8888890000000007</v>
+        <v>58.888890000000004</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -9385,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="B274">
-        <v>4048</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -9393,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="B275">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -9401,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="B276">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -9409,7 +9405,7 @@
         <v>3</v>
       </c>
       <c r="B277">
-        <v>42</v>
+        <v>28.421053000000001</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -9417,7 +9413,7 @@
         <v>4</v>
       </c>
       <c r="B278">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -9425,7 +9421,7 @@
         <v>5</v>
       </c>
       <c r="B279">
-        <v>18.333334000000001</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -9433,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="B281">
-        <v>4103</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -9441,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="B282">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -9449,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="B283">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -9457,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="B284">
-        <v>39.642856999999999</v>
+        <v>31.428571999999999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -9465,7 +9461,7 @@
         <v>4</v>
       </c>
       <c r="B285">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -9473,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="B286">
-        <v>26.666665999999999</v>
+        <v>48.333331999999999</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -9481,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="B288">
-        <v>4218</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -9489,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="B289">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -9497,7 +9493,7 @@
         <v>2</v>
       </c>
       <c r="B290">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -9505,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="B291">
-        <v>41.935482</v>
+        <v>33.913043999999999</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -9513,7 +9509,7 @@
         <v>4</v>
       </c>
       <c r="B292">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -9521,7 +9517,7 @@
         <v>5</v>
       </c>
       <c r="B293">
-        <v>16.11111</v>
+        <v>41.666668000000001</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -9529,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="B295">
-        <v>4303</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -9537,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="B296">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -9545,7 +9541,7 @@
         <v>2</v>
       </c>
       <c r="B297">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -9553,7 +9549,7 @@
         <v>3</v>
       </c>
       <c r="B298">
-        <v>41.612904</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -9561,7 +9557,7 @@
         <v>4</v>
       </c>
       <c r="B299">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -9569,7 +9565,7 @@
         <v>5</v>
       </c>
       <c r="B300">
-        <v>16.666665999999999</v>
+        <v>36.111109999999996</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -9577,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>4403</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -9585,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="B303">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -9593,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="B304">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -9601,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>39.655174000000002</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -9609,7 +9605,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -9617,7 +9613,7 @@
         <v>5</v>
       </c>
       <c r="B307">
-        <v>24.444445000000002</v>
+        <v>39.444443</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -9625,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="B309">
-        <v>4523</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -9633,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="B310">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -9641,7 +9637,7 @@
         <v>2</v>
       </c>
       <c r="B311">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -9649,7 +9645,7 @@
         <v>3</v>
       </c>
       <c r="B312">
-        <v>43.4375</v>
+        <v>38.214286999999999</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -9657,7 +9653,7 @@
         <v>4</v>
       </c>
       <c r="B313">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -9665,7 +9661,7 @@
         <v>5</v>
       </c>
       <c r="B314">
-        <v>11.111110999999999</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -9673,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="B316">
-        <v>4628</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -9681,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="B317">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -9689,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="B318">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -9697,7 +9693,7 @@
         <v>3</v>
       </c>
       <c r="B319">
-        <v>43.030304000000001</v>
+        <v>37.407406000000002</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -9705,7 +9701,7 @@
         <v>4</v>
       </c>
       <c r="B320">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -9713,7 +9709,7 @@
         <v>5</v>
       </c>
       <c r="B321">
-        <v>9.444445</v>
+        <v>28.333334000000001</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -9721,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="B323">
-        <v>4723</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -9729,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="B324">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -9737,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="B325">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -9745,7 +9741,7 @@
         <v>3</v>
       </c>
       <c r="B326">
-        <v>40</v>
+        <v>36.538460000000001</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -9753,7 +9749,7 @@
         <v>4</v>
       </c>
       <c r="B327">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -9761,7 +9757,7 @@
         <v>5</v>
       </c>
       <c r="B328">
-        <v>25.555554999999998</v>
+        <v>31.666665999999999</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -9769,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="B330">
-        <v>4813</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -9785,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="B332">
-        <v>432</v>
+        <v>402</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -9793,7 +9789,7 @@
         <v>3</v>
       </c>
       <c r="B333">
-        <v>33.333331999999999</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -9801,7 +9797,7 @@
         <v>4</v>
       </c>
       <c r="B334">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -9809,7 +9805,7 @@
         <v>5</v>
       </c>
       <c r="B335">
-        <v>47.77778</v>
+        <v>32.77778</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -9817,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B337">
-        <v>4928</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -9833,7 +9829,7 @@
         <v>2</v>
       </c>
       <c r="B339">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -9841,7 +9837,7 @@
         <v>3</v>
       </c>
       <c r="B340">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -9849,7 +9845,7 @@
         <v>4</v>
       </c>
       <c r="B341">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -9857,7 +9853,7 @@
         <v>5</v>
       </c>
       <c r="B342">
-        <v>36.666668000000001</v>
+        <v>31.666665999999999</v>
       </c>
     </row>
   </sheetData>
